--- a/Spring_Boot_Features_Links.xlsx
+++ b/Spring_Boot_Features_Links.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="573">
   <si>
     <t xml:space="preserve">Task Type</t>
   </si>
@@ -73,7 +73,7 @@
     <t xml:space="preserve">P1</t>
   </si>
   <si>
-    <t xml:space="preserve">To be started</t>
+    <t xml:space="preserve">Completed</t>
   </si>
   <si>
     <t xml:space="preserve">Parent-POM created
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t xml:space="preserve">Checkin Project In GitHub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P2</t>
   </si>
   <si>
     <t xml:space="preserve">Docs Created</t>
@@ -97,9 +94,6 @@
 - DB Instance and Tables 
 - Create Triggers for History Data
 - Insert Master Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Completed</t>
   </si>
   <si>
     <t xml:space="preserve">Database and Tables created automatically using config.
@@ -419,6 +413,9 @@
   </si>
   <si>
     <t xml:space="preserve">Input Validation - On Dynamic Field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P2</t>
   </si>
   <si>
     <t xml:space="preserve">Apply dynamic validation of specific field. For example apply 8 digit Integer type validation on UserName field which is of String Type. Design a framework for this dynamic validation.</t>
@@ -2409,7 +2406,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2420,6 +2417,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB6D7A8"/>
         <bgColor rgb="FFB7E1CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -2525,7 +2528,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2566,11 +2569,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2578,11 +2581,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2602,7 +2609,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2618,15 +2625,15 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2634,7 +2641,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2642,23 +2649,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2674,11 +2681,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2786,9 +2793,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1428120</xdr:colOff>
+      <xdr:colOff>1427760</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>141840</xdr:rowOff>
+      <xdr:rowOff>141480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2802,7 +2809,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="28440" y="8814960"/>
-          <a:ext cx="1399680" cy="275760"/>
+          <a:ext cx="1399320" cy="275400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2823,9 +2830,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1418760</xdr:colOff>
+      <xdr:colOff>1418400</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>437760</xdr:rowOff>
+      <xdr:rowOff>437400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2839,7 +2846,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="16650720"/>
-          <a:ext cx="1418760" cy="266400"/>
+          <a:ext cx="1418400" cy="266040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2880,10 +2887,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+      <selection pane="bottomLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.74"/>
@@ -2983,18 +2990,20 @@
       <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="10"/>
+      <c r="C3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>17</v>
       </c>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
@@ -3016,22 +3025,22 @@
     <row r="4" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>19</v>
+      <c r="D4" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="2"/>
       <c r="G4" s="7"/>
       <c r="H4" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
@@ -3053,22 +3062,22 @@
     <row r="5" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
@@ -3090,12 +3099,12 @@
     <row r="6" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="13"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -3122,17 +3131,17 @@
     <row r="7" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="10"/>
+      <c r="D7" s="13"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="9"/>
@@ -3155,20 +3164,20 @@
     <row r="8" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3"/>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="2"/>
       <c r="I8" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -3190,17 +3199,17 @@
     <row r="9" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3"/>
       <c r="B9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="13"/>
+        <v>28</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="14"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="9"/>
@@ -3223,12 +3232,12 @@
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3"/>
       <c r="B10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="13"/>
+      <c r="C10" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="14"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -3252,23 +3261,23 @@
       <c r="Y10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="s">
-        <v>34</v>
+      <c r="A11" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="9"/>
@@ -3289,26 +3298,26 @@
       <c r="Y11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15" t="s">
-        <v>37</v>
+      <c r="A12" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
@@ -3330,22 +3339,22 @@
     <row r="13" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3"/>
       <c r="B13" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
@@ -3367,19 +3376,19 @@
     <row r="14" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3"/>
       <c r="B14" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="9"/>
@@ -3402,19 +3411,19 @@
     <row r="15" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3"/>
       <c r="B15" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="9"/>
@@ -3437,19 +3446,19 @@
     <row r="16" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3"/>
       <c r="B16" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="9"/>
@@ -3472,22 +3481,22 @@
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3"/>
       <c r="B17" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I17" s="16" t="s">
-        <v>52</v>
+        <v>49</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>50</v>
       </c>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
@@ -3509,22 +3518,22 @@
     <row r="18" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3"/>
       <c r="B18" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
@@ -3546,22 +3555,22 @@
     <row r="19" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3"/>
       <c r="B19" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>56</v>
       </c>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
@@ -3583,22 +3592,22 @@
     <row r="20" customFormat="false" ht="219.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3"/>
       <c r="B20" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
@@ -3620,19 +3629,19 @@
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3"/>
       <c r="B21" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="9"/>
@@ -3655,22 +3664,22 @@
     <row r="22" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3"/>
       <c r="B22" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I22" s="16" t="s">
-        <v>66</v>
+        <v>63</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>64</v>
       </c>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
@@ -3692,22 +3701,22 @@
     <row r="23" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3"/>
       <c r="B23" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
@@ -3729,22 +3738,22 @@
     <row r="24" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3"/>
       <c r="B24" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
@@ -3766,17 +3775,17 @@
     <row r="25" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3"/>
       <c r="B25" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="10"/>
+        <v>71</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="13"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="9"/>
@@ -3800,18 +3809,18 @@
     <row r="26" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3"/>
       <c r="B26" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="10"/>
+      <c r="D26" s="13"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="2"/>
       <c r="I26" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
@@ -3833,22 +3842,22 @@
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3"/>
       <c r="B27" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I27" s="17" t="s">
         <v>78</v>
-      </c>
-      <c r="I27" s="16" t="s">
-        <v>79</v>
       </c>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
@@ -3870,19 +3879,19 @@
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3"/>
       <c r="B28" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="9"/>
@@ -3905,17 +3914,17 @@
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3"/>
       <c r="B29" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="10"/>
+      <c r="D29" s="13"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="9"/>
@@ -3938,17 +3947,17 @@
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3"/>
       <c r="B30" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C30" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="10"/>
+      <c r="D30" s="13"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="9"/>
@@ -3971,20 +3980,20 @@
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3"/>
       <c r="B31" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C31" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="10"/>
+      <c r="D31" s="13"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I31" s="16" t="s">
-        <v>84</v>
+        <v>77</v>
+      </c>
+      <c r="I31" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
@@ -4005,25 +4014,25 @@
     </row>
     <row r="32" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I32" s="8" t="s">
         <v>87</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>88</v>
       </c>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
@@ -4045,22 +4054,22 @@
     <row r="33" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3"/>
       <c r="B33" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I33" s="17" t="s">
         <v>90</v>
-      </c>
-      <c r="I33" s="16" t="s">
-        <v>91</v>
       </c>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
@@ -4082,22 +4091,22 @@
     <row r="34" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3"/>
       <c r="B34" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I34" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>94</v>
       </c>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
@@ -4119,19 +4128,19 @@
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3"/>
       <c r="B35" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C35" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="10"/>
+      <c r="D35" s="13"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I35" s="16"/>
+        <v>95</v>
+      </c>
+      <c r="I35" s="17"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
@@ -4152,22 +4161,22 @@
     <row r="36" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3"/>
       <c r="B36" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I36" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
@@ -4189,22 +4198,22 @@
     <row r="37" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3"/>
       <c r="B37" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I37" s="8" t="s">
         <v>101</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>102</v>
       </c>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
@@ -4225,13 +4234,13 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
@@ -4256,23 +4265,23 @@
     </row>
     <row r="39" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D39" s="13"/>
+      <c r="C39" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="14"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I39" s="12" t="s">
         <v>107</v>
-      </c>
-      <c r="I39" s="12" t="s">
-        <v>108</v>
       </c>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
@@ -4294,17 +4303,17 @@
     <row r="40" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3"/>
       <c r="B40" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D40" s="13"/>
+        <v>108</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="14"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="9"/>
@@ -4327,12 +4336,12 @@
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3"/>
       <c r="B41" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D41" s="13"/>
+        <v>110</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" s="14"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
@@ -4357,16 +4366,16 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
@@ -4393,18 +4402,18 @@
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3"/>
       <c r="B43" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C43" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="10"/>
+      <c r="D43" s="13"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="3"/>
       <c r="I43" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
@@ -4426,18 +4435,18 @@
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3"/>
       <c r="B44" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
-      <c r="H44" s="13"/>
+      <c r="H44" s="14"/>
       <c r="I44" s="8"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
@@ -4459,17 +4468,17 @@
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3"/>
       <c r="B45" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
+        <v>12</v>
+      </c>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
       <c r="H45" s="3"/>
       <c r="I45" s="8"/>
       <c r="J45" s="9"/>
@@ -4492,20 +4501,20 @@
     <row r="46" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3"/>
       <c r="B46" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="13"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C46" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="10"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="2" t="s">
+      <c r="I46" s="8" t="s">
         <v>119</v>
-      </c>
-      <c r="I46" s="8" t="s">
-        <v>120</v>
       </c>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
@@ -4527,15 +4536,15 @@
     <row r="47" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3"/>
       <c r="B47" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C47" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C47" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D47" s="10"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
       <c r="H47" s="3"/>
       <c r="I47" s="8"/>
       <c r="J47" s="9"/>
@@ -4558,15 +4567,15 @@
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3"/>
       <c r="B48" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C48" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C48" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="10"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
       <c r="H48" s="3"/>
       <c r="I48" s="8"/>
       <c r="J48" s="9"/>
@@ -4589,18 +4598,18 @@
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3"/>
       <c r="B49" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="13"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="17" t="s">
         <v>123</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="10"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="16" t="s">
-        <v>124</v>
       </c>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
@@ -4622,12 +4631,12 @@
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3"/>
       <c r="B50" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C50" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="10"/>
+      <c r="D50" s="13"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
@@ -4652,25 +4661,25 @@
     </row>
     <row r="51" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I51" s="12" t="s">
         <v>128</v>
-      </c>
-      <c r="I51" s="12" t="s">
-        <v>129</v>
       </c>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
@@ -4692,24 +4701,24 @@
     <row r="52" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3"/>
       <c r="B52" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="H52" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="I52" s="12" t="s">
         <v>132</v>
-      </c>
-      <c r="I52" s="12" t="s">
-        <v>133</v>
       </c>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
@@ -4730,24 +4739,24 @@
       <c r="Z52" s="9"/>
     </row>
     <row r="53" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="18"/>
+      <c r="A53" s="19"/>
       <c r="B53" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I53" s="12" t="s">
         <v>135</v>
-      </c>
-      <c r="I53" s="12" t="s">
-        <v>136</v>
       </c>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
@@ -4768,23 +4777,23 @@
     </row>
     <row r="54" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D54" s="10"/>
+      <c r="D54" s="13"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I54" s="8" t="s">
         <v>139</v>
-      </c>
-      <c r="I54" s="8" t="s">
-        <v>140</v>
       </c>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
@@ -4806,7 +4815,7 @@
     <row r="55" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3"/>
       <c r="B55" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>11</v>
@@ -4816,10 +4825,10 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I55" s="8" t="s">
         <v>142</v>
-      </c>
-      <c r="I55" s="8" t="s">
-        <v>143</v>
       </c>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
@@ -4841,10 +4850,10 @@
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3"/>
       <c r="B56" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="7"/>
@@ -4872,17 +4881,17 @@
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="3"/>
       <c r="B57" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c r="H57" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="9"/>
@@ -4904,16 +4913,16 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
@@ -4940,20 +4949,20 @@
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3"/>
       <c r="B59" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c r="H59" s="3"/>
       <c r="I59" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
@@ -4975,13 +4984,13 @@
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="3"/>
       <c r="B60" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
@@ -5008,22 +5017,22 @@
     <row r="61" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3"/>
       <c r="B61" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c r="H61" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I61" s="12" t="s">
         <v>154</v>
-      </c>
-      <c r="I61" s="12" t="s">
-        <v>155</v>
       </c>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
@@ -5045,19 +5054,19 @@
     <row r="62" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3"/>
       <c r="B62" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c r="H62" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I62" s="12"/>
       <c r="J62" s="9"/>
@@ -5081,19 +5090,19 @@
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3"/>
       <c r="B63" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c r="H63" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="9"/>
@@ -5115,22 +5124,22 @@
     </row>
     <row r="64" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c r="H64" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="9"/>
@@ -5153,19 +5162,19 @@
     <row r="65" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3"/>
       <c r="B65" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c r="H65" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="9"/>
@@ -5189,17 +5198,17 @@
     <row r="66" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3"/>
       <c r="B66" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C66" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="C66" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="D66" s="13"/>
+      <c r="D66" s="14"/>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="9"/>
@@ -5222,17 +5231,17 @@
     <row r="67" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3"/>
       <c r="B67" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C67" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C67" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D67" s="13"/>
+      <c r="D67" s="14"/>
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c r="H67" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="9"/>
@@ -5255,19 +5264,19 @@
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3"/>
       <c r="B68" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c r="H68" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="9"/>
@@ -5290,19 +5299,19 @@
     <row r="69" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="3"/>
       <c r="B69" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c r="H69" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="9"/>
@@ -5326,20 +5335,20 @@
     <row r="70" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3"/>
       <c r="B70" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C70" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C70" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D70" s="10"/>
+      <c r="D70" s="13"/>
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c r="H70" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="I70" s="17" t="s">
         <v>175</v>
-      </c>
-      <c r="I70" s="16" t="s">
-        <v>176</v>
       </c>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
@@ -5361,21 +5370,21 @@
     <row r="71" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="3"/>
       <c r="B71" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c r="H71" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I71" s="16"/>
+        <v>177</v>
+      </c>
+      <c r="I71" s="17"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c r="L71" s="9"/>
@@ -5397,12 +5406,12 @@
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3"/>
       <c r="B72" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C72" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D72" s="13"/>
+        <v>178</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D72" s="14"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
@@ -5427,15 +5436,15 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C73" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="D73" s="13"/>
+      <c r="C73" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="D73" s="14"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
@@ -5461,12 +5470,12 @@
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="3"/>
       <c r="B74" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C74" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="D74" s="13"/>
+        <v>181</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="D74" s="14"/>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -5492,12 +5501,12 @@
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="3"/>
       <c r="B75" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C75" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="D75" s="13"/>
+        <v>182</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="D75" s="14"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
@@ -5522,15 +5531,15 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C76" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="D76" s="13"/>
+      <c r="C76" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="D76" s="14"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
@@ -5555,20 +5564,20 @@
     </row>
     <row r="77" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C77" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D77" s="13"/>
+      <c r="C77" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D77" s="14"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="9"/>
@@ -5591,12 +5600,12 @@
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3"/>
       <c r="B78" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C78" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C78" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D78" s="10"/>
+      <c r="D78" s="13"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
@@ -5622,12 +5631,12 @@
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="3"/>
       <c r="B79" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C79" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D79" s="13"/>
+        <v>189</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D79" s="14"/>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
@@ -5652,23 +5661,23 @@
     </row>
     <row r="80" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C80" s="10" t="s">
+      <c r="C80" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D80" s="10"/>
+      <c r="D80" s="13"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
       <c r="H80" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I80" s="17" t="s">
         <v>193</v>
-      </c>
-      <c r="I80" s="16" t="s">
-        <v>194</v>
       </c>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
@@ -5690,20 +5699,20 @@
     <row r="81" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3"/>
       <c r="B81" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C81" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C81" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D81" s="10"/>
+      <c r="D81" s="13"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
       <c r="H81" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="I81" s="17" t="s">
         <v>196</v>
-      </c>
-      <c r="I81" s="16" t="s">
-        <v>197</v>
       </c>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
@@ -5725,17 +5734,17 @@
     <row r="82" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3"/>
       <c r="B82" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C82" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C82" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D82" s="10"/>
+      <c r="D82" s="13"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
       <c r="H82" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="9"/>
@@ -5758,20 +5767,20 @@
     <row r="83" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="8"/>
       <c r="B83" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D83" s="13"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="14"/>
+      <c r="H83" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="C83" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D83" s="10"/>
-      <c r="E83" s="13"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="13"/>
-      <c r="H83" s="8" t="s">
+      <c r="I83" s="12" t="s">
         <v>201</v>
-      </c>
-      <c r="I83" s="12" t="s">
-        <v>202</v>
       </c>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
@@ -5792,21 +5801,21 @@
     </row>
     <row r="84" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="C84" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="8" t="s">
         <v>204</v>
-      </c>
-      <c r="C84" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D84" s="13"/>
-      <c r="E84" s="13"/>
-      <c r="F84" s="13"/>
-      <c r="G84" s="13"/>
-      <c r="H84" s="13"/>
-      <c r="I84" s="8" t="s">
-        <v>205</v>
       </c>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
@@ -5828,16 +5837,16 @@
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="8"/>
       <c r="B85" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C85" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
-      <c r="F85" s="13"/>
-      <c r="G85" s="13"/>
-      <c r="H85" s="13"/>
+        <v>205</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="14"/>
+      <c r="H85" s="14"/>
       <c r="I85" s="8"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
@@ -5858,19 +5867,19 @@
     </row>
     <row r="86" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C86" s="10" t="s">
+      <c r="C86" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D86" s="10"/>
-      <c r="E86" s="13"/>
-      <c r="F86" s="13"/>
-      <c r="G86" s="13"/>
-      <c r="H86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="14"/>
+      <c r="H86" s="14"/>
       <c r="I86" s="8"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
@@ -5890,24 +5899,24 @@
       <c r="Y86" s="9"/>
     </row>
     <row r="87" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="19" t="s">
+      <c r="A87" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="C87" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" s="13"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="C87" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D87" s="10"/>
-      <c r="E87" s="13"/>
-      <c r="F87" s="13"/>
-      <c r="G87" s="13"/>
-      <c r="H87" s="13" t="s">
+      <c r="I87" s="8" t="s">
         <v>211</v>
-      </c>
-      <c r="I87" s="8" t="s">
-        <v>212</v>
       </c>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
@@ -5927,20 +5936,20 @@
       <c r="Y87" s="9"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="13" t="s">
+      <c r="A88" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C88" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D88" s="13"/>
-      <c r="E88" s="13"/>
-      <c r="F88" s="13"/>
-      <c r="G88" s="13"/>
-      <c r="H88" s="13"/>
+      <c r="C88" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="14"/>
+      <c r="H88" s="14"/>
       <c r="I88" s="8"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
@@ -5960,20 +5969,20 @@
       <c r="Y88" s="9"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="13" t="s">
+      <c r="A89" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C89" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="D89" s="13"/>
-      <c r="E89" s="13"/>
-      <c r="F89" s="13"/>
-      <c r="G89" s="13"/>
-      <c r="H89" s="13"/>
+      <c r="C89" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="14"/>
+      <c r="H89" s="14"/>
       <c r="I89" s="8"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
@@ -5993,20 +6002,20 @@
       <c r="Y89" s="9"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="13" t="s">
+      <c r="A90" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C90" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D90" s="13"/>
-      <c r="E90" s="13"/>
-      <c r="F90" s="13"/>
-      <c r="G90" s="13"/>
-      <c r="H90" s="13"/>
+      <c r="C90" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="14"/>
+      <c r="H90" s="14"/>
       <c r="I90" s="8"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
@@ -6027,14 +6036,14 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="9"/>
-      <c r="B91" s="20"/>
+      <c r="B91" s="21"/>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
       <c r="F91" s="9"/>
       <c r="G91" s="9"/>
       <c r="H91" s="9"/>
-      <c r="I91" s="21"/>
+      <c r="I91" s="22"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c r="L91" s="9"/>
@@ -6061,7 +6070,7 @@
       <c r="F92" s="9"/>
       <c r="G92" s="9"/>
       <c r="H92" s="9"/>
-      <c r="I92" s="21"/>
+      <c r="I92" s="22"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c r="L92" s="9"/>
@@ -6088,7 +6097,7 @@
       <c r="F93" s="9"/>
       <c r="G93" s="9"/>
       <c r="H93" s="9"/>
-      <c r="I93" s="21"/>
+      <c r="I93" s="22"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c r="L93" s="9"/>
@@ -6115,7 +6124,7 @@
       <c r="F94" s="9"/>
       <c r="G94" s="9"/>
       <c r="H94" s="9"/>
-      <c r="I94" s="21"/>
+      <c r="I94" s="22"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c r="L94" s="9"/>
@@ -6142,7 +6151,7 @@
       <c r="F95" s="9"/>
       <c r="G95" s="9"/>
       <c r="H95" s="9"/>
-      <c r="I95" s="21"/>
+      <c r="I95" s="22"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c r="L95" s="9"/>
@@ -6169,7 +6178,7 @@
       <c r="F96" s="9"/>
       <c r="G96" s="9"/>
       <c r="H96" s="9"/>
-      <c r="I96" s="21"/>
+      <c r="I96" s="22"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c r="L96" s="9"/>
@@ -6196,7 +6205,7 @@
       <c r="F97" s="9"/>
       <c r="G97" s="9"/>
       <c r="H97" s="9"/>
-      <c r="I97" s="21"/>
+      <c r="I97" s="22"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c r="L97" s="9"/>
@@ -6223,7 +6232,7 @@
       <c r="F98" s="9"/>
       <c r="G98" s="9"/>
       <c r="H98" s="9"/>
-      <c r="I98" s="21"/>
+      <c r="I98" s="22"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c r="L98" s="9"/>
@@ -6250,7 +6259,7 @@
       <c r="F99" s="9"/>
       <c r="G99" s="9"/>
       <c r="H99" s="9"/>
-      <c r="I99" s="21"/>
+      <c r="I99" s="22"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c r="L99" s="9"/>
@@ -6277,7 +6286,7 @@
       <c r="F100" s="9"/>
       <c r="G100" s="9"/>
       <c r="H100" s="9"/>
-      <c r="I100" s="21"/>
+      <c r="I100" s="22"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c r="L100" s="9"/>
@@ -6304,7 +6313,7 @@
       <c r="F101" s="9"/>
       <c r="G101" s="9"/>
       <c r="H101" s="9"/>
-      <c r="I101" s="21"/>
+      <c r="I101" s="22"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c r="L101" s="9"/>
@@ -6331,7 +6340,7 @@
       <c r="F102" s="9"/>
       <c r="G102" s="9"/>
       <c r="H102" s="9"/>
-      <c r="I102" s="21"/>
+      <c r="I102" s="22"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c r="L102" s="9"/>
@@ -6358,7 +6367,7 @@
       <c r="F103" s="9"/>
       <c r="G103" s="9"/>
       <c r="H103" s="9"/>
-      <c r="I103" s="21"/>
+      <c r="I103" s="22"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c r="L103" s="9"/>
@@ -11481,7 +11490,7 @@
       <selection pane="bottomRight" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.13"/>
@@ -11493,10 +11502,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -11510,68 +11519,68 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="C2" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>223</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="18" t="str">
+      <c r="A3" s="19" t="str">
         <f aca="false">A2</f>
         <v>Authentication</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18" t="s">
-        <v>225</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="18" t="str">
+      <c r="A4" s="19" t="str">
         <f aca="false">A3</f>
         <v>Authentication</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18" t="s">
-        <v>227</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="18" t="str">
+      <c r="A5" s="19" t="str">
         <f aca="false">A4</f>
         <v>Authentication</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C5" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="18"/>
+        <v>12</v>
+      </c>
+      <c r="E5" s="19"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
@@ -11595,34 +11604,34 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="19" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="18"/>
+        <v>12</v>
+      </c>
+      <c r="E6" s="19"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="18" t="str">
+      <c r="A7" s="19" t="str">
         <f aca="false">A6</f>
         <v>Group Management</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C7" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="18"/>
+        <v>12</v>
+      </c>
+      <c r="E7" s="19"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -11645,20 +11654,20 @@
       <c r="Y7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="18" t="str">
+      <c r="A8" s="19" t="str">
         <f aca="false">A7</f>
         <v>Group Management</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C8" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="18"/>
+        <v>12</v>
+      </c>
+      <c r="E8" s="19"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -11681,20 +11690,20 @@
       <c r="Y8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="18" t="str">
+      <c r="A9" s="19" t="str">
         <f aca="false">A8</f>
         <v>Group Management</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="E9" s="18"/>
+      <c r="E9" s="19"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -11717,20 +11726,20 @@
       <c r="Y9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="18" t="str">
+      <c r="A10" s="19" t="str">
         <f aca="false">A8</f>
         <v>Group Management</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C10" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="18"/>
+        <v>12</v>
+      </c>
+      <c r="E10" s="19"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
@@ -11753,21 +11762,21 @@
       <c r="Y10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="18" t="str">
+      <c r="A11" s="19" t="str">
         <f aca="false">A10</f>
         <v>Group Management</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="19" t="s">
         <v>236</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>237</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
@@ -11791,21 +11800,21 @@
       <c r="Y11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="18" t="str">
+      <c r="A12" s="19" t="str">
         <f aca="false">A10</f>
         <v>Group Management</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="19" t="s">
         <v>238</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>239</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -11829,21 +11838,21 @@
       <c r="Y12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="18" t="str">
+      <c r="A13" s="19" t="str">
         <f aca="false">A11</f>
         <v>Group Management</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="19" t="s">
         <v>240</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>241</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -11868,18 +11877,18 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="19" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="18"/>
+        <v>12</v>
+      </c>
+      <c r="E14" s="19"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
@@ -11902,20 +11911,20 @@
       <c r="Y14" s="9"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="18" t="str">
+      <c r="A15" s="19" t="str">
         <f aca="false">A14</f>
         <v>User Management</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C15" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="18"/>
+        <v>12</v>
+      </c>
+      <c r="E15" s="19"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
@@ -11938,20 +11947,20 @@
       <c r="Y15" s="9"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="18" t="str">
+      <c r="A16" s="19" t="str">
         <f aca="false">A15</f>
         <v>User Management</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C16" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="C16" s="19" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="18"/>
+        <v>12</v>
+      </c>
+      <c r="E16" s="19"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
@@ -11974,19 +11983,19 @@
       <c r="Y16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="18" t="str">
+      <c r="A17" s="19" t="str">
         <f aca="false">A16</f>
         <v>User Management</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -12010,20 +12019,20 @@
       <c r="Y17" s="9"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="18" t="str">
+      <c r="A18" s="19" t="str">
         <f aca="false">A17</f>
         <v>User Management</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C18" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="C18" s="19" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="18"/>
+        <v>12</v>
+      </c>
+      <c r="E18" s="19"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
@@ -12046,18 +12055,18 @@
       <c r="Y18" s="9"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="18" t="str">
+      <c r="A19" s="19" t="str">
         <f aca="false">A18</f>
         <v>User Management</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
+        <v>186</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
@@ -12080,19 +12089,19 @@
       <c r="Y19" s="9"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="18" t="str">
+      <c r="A20" s="19" t="str">
         <f aca="false">A19</f>
         <v>User Management</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19" t="s">
         <v>248</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18" t="s">
-        <v>249</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -12116,21 +12125,21 @@
       <c r="Y20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="18" t="str">
+      <c r="A21" s="19" t="str">
         <f aca="false">A20</f>
         <v>User Management</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="19" t="s">
         <v>250</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>251</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
@@ -12154,21 +12163,21 @@
       <c r="Y21" s="9"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="18" t="str">
+      <c r="A22" s="19" t="str">
         <f aca="false">A20</f>
         <v>User Management</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="19" t="s">
         <v>252</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>253</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -12192,21 +12201,21 @@
       <c r="Y22" s="9"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="18" t="str">
+      <c r="A23" s="19" t="str">
         <f aca="false">A21</f>
         <v>User Management</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C23" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="C23" s="19" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>254</v>
+        <v>12</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>253</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
@@ -12231,213 +12240,213 @@
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="D24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>258</v>
-      </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="18" t="str">
+      <c r="A25" s="19" t="str">
         <f aca="false">A24</f>
         <v>UI Only</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>256</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="18" t="str">
+      <c r="A26" s="19" t="str">
         <f aca="false">A25</f>
         <v>UI Only</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>257</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C27" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C27" s="18" t="s">
+      <c r="D27" s="19"/>
+      <c r="E27" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="2" t="s">
-        <v>264</v>
-      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="18" t="str">
+      <c r="A28" s="19" t="str">
         <f aca="false">A27</f>
         <v>Send Email</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
+        <v>264</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="18" t="str">
+      <c r="A29" s="19" t="str">
         <f aca="false">A28</f>
         <v>Send Email</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
+        <v>265</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="19"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C31" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="18"/>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>11</v>
-      </c>
       <c r="D31" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" s="18"/>
+        <v>12</v>
+      </c>
+      <c r="E31" s="19"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="18"/>
+      <c r="A32" s="19"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="18"/>
+      <c r="A33" s="19"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="18"/>
+      <c r="A34" s="19"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="18"/>
+      <c r="A35" s="19"/>
       <c r="B35" s="3"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="18"/>
+      <c r="A36" s="19"/>
       <c r="B36" s="3"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="18"/>
+      <c r="A37" s="19"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="18"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="9"/>
@@ -13790,7 +13799,7 @@
       <selection pane="bottomRight" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.24"/>
@@ -13818,22 +13827,22 @@
         <v>Phase</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13841,297 +13850,297 @@
         <f aca="false">UseCases!A2</f>
         <v>Authentication</v>
       </c>
-      <c r="B2" s="18" t="str">
+      <c r="B2" s="19" t="str">
         <f aca="false">UseCases!B2</f>
         <v>Login</v>
       </c>
-      <c r="C2" s="23" t="str">
+      <c r="C2" s="24" t="str">
         <f aca="false">UseCases!C2</f>
         <v>P1</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E2" s="25" t="s">
         <v>275</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="F2" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="G2" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="H2" s="18" t="s">
-        <v>279</v>
-      </c>
-      <c r="I2" s="18"/>
+      <c r="I2" s="19"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="18" t="str">
+      <c r="A3" s="19" t="str">
         <f aca="false">UseCases!A3</f>
         <v>Authentication</v>
       </c>
-      <c r="B3" s="18" t="str">
+      <c r="B3" s="19" t="str">
         <f aca="false">UseCases!B3</f>
         <v>Forgot Password</v>
       </c>
-      <c r="C3" s="18" t="str">
+      <c r="C3" s="19" t="str">
         <f aca="false">UseCases!C3</f>
         <v>P2</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="F3" s="19"/>
+      <c r="G3" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="18"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="19"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="18" t="str">
+      <c r="A4" s="19" t="str">
         <f aca="false">UseCases!A4</f>
         <v>Authentication</v>
       </c>
-      <c r="B4" s="18" t="str">
+      <c r="B4" s="19" t="str">
         <f aca="false">UseCases!B4</f>
         <v>Change Password</v>
       </c>
-      <c r="C4" s="18" t="str">
+      <c r="C4" s="19" t="str">
         <f aca="false">UseCases!C4</f>
         <v>P2</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="E4" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="E4" s="24" t="s">
-        <v>284</v>
-      </c>
-      <c r="F4" s="18"/>
+      <c r="F4" s="19"/>
       <c r="G4" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
+        <v>225</v>
+      </c>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="18" t="str">
+      <c r="A5" s="19" t="str">
         <f aca="false">UseCases!A5</f>
         <v>Authentication</v>
       </c>
-      <c r="B5" s="18" t="str">
+      <c r="B5" s="19" t="str">
         <f aca="false">UseCases!B5</f>
         <v>Logout</v>
       </c>
-      <c r="C5" s="23" t="str">
+      <c r="C5" s="24" t="str">
         <f aca="false">UseCases!C5</f>
         <v>P1</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="F5" s="26" t="s">
         <v>285</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="F5" s="25" t="s">
+      <c r="G5" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="str">
         <f aca="false">UseCases!A6</f>
         <v>Group Management</v>
       </c>
-      <c r="B6" s="18" t="str">
+      <c r="B6" s="19" t="str">
         <f aca="false">UseCases!B6</f>
         <v>Find All Groups</v>
       </c>
-      <c r="C6" s="23" t="str">
+      <c r="C6" s="24" t="str">
         <f aca="false">UseCases!C6</f>
         <v>P1</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="E6" s="18" t="s">
-        <v>281</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>286</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="18" t="str">
+      <c r="A7" s="19" t="str">
         <f aca="false">UseCases!A7</f>
         <v>Group Management</v>
       </c>
-      <c r="B7" s="18" t="str">
+      <c r="B7" s="19" t="str">
         <f aca="false">UseCases!B7</f>
         <v>Find by Status</v>
       </c>
-      <c r="C7" s="23" t="str">
+      <c r="C7" s="24" t="str">
         <f aca="false">UseCases!C7</f>
         <v>P1</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="F7" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="F7" s="25" t="s">
-        <v>286</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="18" t="str">
+      <c r="A8" s="19" t="str">
         <f aca="false">UseCases!A8</f>
         <v>Group Management</v>
       </c>
-      <c r="B8" s="18" t="str">
+      <c r="B8" s="19" t="str">
         <f aca="false">UseCases!B8</f>
         <v>Find Group by Id</v>
       </c>
-      <c r="C8" s="23" t="str">
+      <c r="C8" s="24" t="str">
         <f aca="false">UseCases!C8</f>
         <v>P1</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="F8" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="F8" s="25" t="s">
-        <v>286</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="14"/>
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="18"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="B9" s="18" t="s">
+      <c r="C9" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>296</v>
       </c>
-      <c r="C9" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="18" t="s">
+      <c r="E9" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="F9" s="26"/>
+      <c r="G9" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="18"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="19"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="18" t="str">
+      <c r="A10" s="19" t="str">
         <f aca="false">UseCases!A10</f>
         <v>Group Management</v>
       </c>
-      <c r="B10" s="18" t="str">
+      <c r="B10" s="19" t="str">
         <f aca="false">UseCases!B10</f>
         <v>Create New Group</v>
       </c>
-      <c r="C10" s="23" t="str">
+      <c r="C10" s="24" t="str">
         <f aca="false">UseCases!C10</f>
         <v>P1</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>286</v>
+      <c r="F10" s="26" t="s">
+        <v>285</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="18" t="str">
+      <c r="A11" s="19" t="str">
         <f aca="false">UseCases!A11</f>
         <v>Group Management</v>
       </c>
-      <c r="B11" s="18" t="str">
+      <c r="B11" s="19" t="str">
         <f aca="false">UseCases!B11</f>
         <v>Update Group</v>
       </c>
-      <c r="C11" s="23" t="str">
+      <c r="C11" s="24" t="str">
         <f aca="false">UseCases!C11</f>
         <v>P1</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>286</v>
+      <c r="F11" s="26" t="s">
+        <v>285</v>
       </c>
       <c r="G11" s="3"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="18" t="str">
+      <c r="A12" s="19" t="str">
         <f aca="false">UseCases!A12</f>
         <v>Group Management</v>
       </c>
-      <c r="B12" s="18" t="str">
+      <c r="B12" s="19" t="str">
         <f aca="false">UseCases!B12</f>
         <v>Delete Group</v>
       </c>
-      <c r="C12" s="23" t="str">
+      <c r="C12" s="24" t="str">
         <f aca="false">UseCases!C12</f>
         <v>P1</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>286</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
@@ -14151,248 +14160,248 @@
       <c r="Z12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="18" t="str">
+      <c r="A13" s="19" t="str">
         <f aca="false">UseCases!A13</f>
         <v>Group Management</v>
       </c>
-      <c r="B13" s="18" t="str">
+      <c r="B13" s="19" t="str">
         <f aca="false">UseCases!B13</f>
         <v>Update ISValid Status</v>
       </c>
-      <c r="C13" s="23" t="str">
+      <c r="C13" s="24" t="str">
         <f aca="false">UseCases!C13</f>
         <v>P1</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="F13" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="F13" s="25" t="s">
-        <v>286</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="str">
         <f aca="false">UseCases!A14</f>
         <v>User Management</v>
       </c>
-      <c r="B14" s="18" t="str">
+      <c r="B14" s="19" t="str">
         <f aca="false">UseCases!B14</f>
         <v>Find All Users</v>
       </c>
-      <c r="C14" s="23" t="str">
+      <c r="C14" s="24" t="str">
         <f aca="false">UseCases!C14</f>
         <v>P1</v>
       </c>
-      <c r="D14" s="18" t="s">
-        <v>308</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="25" t="s">
-        <v>286</v>
+      <c r="D14" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="26" t="s">
+        <v>285</v>
       </c>
       <c r="G14" s="3"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="18" t="str">
+      <c r="A15" s="19" t="str">
         <f aca="false">UseCases!A15</f>
         <v>User Management</v>
       </c>
-      <c r="B15" s="18" t="str">
+      <c r="B15" s="19" t="str">
         <f aca="false">UseCases!B15</f>
         <v>Find by Status</v>
       </c>
-      <c r="C15" s="23" t="str">
+      <c r="C15" s="24" t="str">
         <f aca="false">UseCases!C15</f>
         <v>P1</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="F15" s="26" t="s">
         <v>309</v>
       </c>
-      <c r="E15" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>310</v>
-      </c>
       <c r="G15" s="3"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="18" t="str">
+      <c r="A16" s="19" t="str">
         <f aca="false">UseCases!A16</f>
         <v>User Management</v>
       </c>
-      <c r="B16" s="18" t="str">
+      <c r="B16" s="19" t="str">
         <f aca="false">UseCases!B16</f>
         <v>Find User by Id</v>
       </c>
-      <c r="C16" s="23" t="str">
+      <c r="C16" s="24" t="str">
         <f aca="false">UseCases!C16</f>
         <v>P1</v>
       </c>
-      <c r="D16" s="18" t="s">
-        <v>311</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="F16" s="25" t="s">
+      <c r="D16" s="19" t="s">
         <v>310</v>
       </c>
+      <c r="E16" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>309</v>
+      </c>
       <c r="G16" s="3"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="18" t="str">
+      <c r="A17" s="19" t="str">
         <f aca="false">UseCases!A17</f>
         <v>User Management</v>
       </c>
-      <c r="B17" s="18" t="str">
+      <c r="B17" s="19" t="str">
         <f aca="false">UseCases!B17</f>
         <v>Search User</v>
       </c>
-      <c r="C17" s="18" t="str">
+      <c r="C17" s="19" t="str">
         <f aca="false">UseCases!C17</f>
         <v>P2</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="18" t="str">
+      <c r="A18" s="19" t="str">
         <f aca="false">UseCases!A18</f>
         <v>User Management</v>
       </c>
-      <c r="B18" s="18" t="str">
+      <c r="B18" s="19" t="str">
         <f aca="false">UseCases!B18</f>
         <v>Create New User</v>
       </c>
-      <c r="C18" s="23" t="str">
+      <c r="C18" s="24" t="str">
         <f aca="false">UseCases!C18</f>
         <v>P1</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="F18" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="G18" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="18" t="str">
+      <c r="A19" s="19" t="str">
         <f aca="false">UseCases!A19</f>
         <v>User Management</v>
       </c>
-      <c r="B19" s="18" t="str">
+      <c r="B19" s="19" t="str">
         <f aca="false">UseCases!B19</f>
         <v>User Registration</v>
       </c>
-      <c r="C19" s="18" t="str">
+      <c r="C19" s="19" t="str">
         <f aca="false">UseCases!C19</f>
         <v>P2</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="18" t="str">
+      <c r="A20" s="19" t="str">
         <f aca="false">UseCases!A20</f>
         <v>User Management</v>
       </c>
-      <c r="B20" s="18" t="str">
+      <c r="B20" s="19" t="str">
         <f aca="false">UseCases!B20</f>
         <v>User Activatation</v>
       </c>
-      <c r="C20" s="18" t="str">
+      <c r="C20" s="19" t="str">
         <f aca="false">UseCases!C20</f>
         <v>P2</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="18" t="str">
+      <c r="A21" s="19" t="str">
         <f aca="false">UseCases!A21</f>
         <v>User Management</v>
       </c>
-      <c r="B21" s="18" t="str">
+      <c r="B21" s="19" t="str">
         <f aca="false">UseCases!B21</f>
         <v>Update User</v>
       </c>
-      <c r="C21" s="23" t="str">
+      <c r="C21" s="24" t="str">
         <f aca="false">UseCases!C21</f>
         <v>P1</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="F21" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="F21" s="25" t="s">
-        <v>318</v>
-      </c>
       <c r="G21" s="3"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="18" t="str">
+      <c r="A22" s="19" t="str">
         <f aca="false">UseCases!A22</f>
         <v>User Management</v>
       </c>
-      <c r="B22" s="18" t="str">
+      <c r="B22" s="19" t="str">
         <f aca="false">UseCases!B22</f>
         <v>Delete User</v>
       </c>
-      <c r="C22" s="23" t="str">
+      <c r="C22" s="24" t="str">
         <f aca="false">UseCases!C22</f>
         <v>P1</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="E22" s="26" t="s">
-        <v>294</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>318</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
@@ -14412,729 +14421,729 @@
       <c r="Z22" s="9"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="18" t="str">
+      <c r="A23" s="19" t="str">
         <f aca="false">UseCases!A23</f>
         <v>User Management</v>
       </c>
-      <c r="B23" s="18" t="str">
+      <c r="B23" s="19" t="str">
         <f aca="false">UseCases!B23</f>
         <v>Update ISValid Status</v>
       </c>
-      <c r="C23" s="23" t="str">
+      <c r="C23" s="24" t="str">
         <f aca="false">UseCases!C23</f>
         <v>P1</v>
       </c>
-      <c r="D23" s="18" t="s">
-        <v>321</v>
+      <c r="D23" s="19" t="s">
+        <v>320</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>318</v>
+        <v>305</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>317</v>
       </c>
       <c r="G23" s="3"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="str">
         <f aca="false">UseCases!A24</f>
         <v>UI Only</v>
       </c>
-      <c r="B24" s="18" t="str">
+      <c r="B24" s="19" t="str">
         <f aca="false">UseCases!B24</f>
         <v>Show User Full Name</v>
       </c>
-      <c r="C24" s="23" t="str">
+      <c r="C24" s="24" t="str">
         <f aca="false">UseCases!C24</f>
         <v>UI1</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="27"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="28"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="18" t="str">
+      <c r="A25" s="19" t="str">
         <f aca="false">UseCases!A25</f>
         <v>UI Only</v>
       </c>
-      <c r="B25" s="18" t="str">
+      <c r="B25" s="19" t="str">
         <f aca="false">UseCases!B25</f>
         <v>Show User Name</v>
       </c>
-      <c r="C25" s="23" t="str">
+      <c r="C25" s="24" t="str">
         <f aca="false">UseCases!C25</f>
         <v>UI1</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="27"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="28"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="18" t="str">
+      <c r="A26" s="19" t="str">
         <f aca="false">UseCases!A26</f>
         <v>UI Only</v>
       </c>
-      <c r="B26" s="18" t="str">
+      <c r="B26" s="19" t="str">
         <f aca="false">UseCases!B26</f>
         <v>Show Login / Logout</v>
       </c>
-      <c r="C26" s="23" t="str">
+      <c r="C26" s="24" t="str">
         <f aca="false">UseCases!C26</f>
         <v>UI1</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="25" t="s">
-        <v>318</v>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="26" t="s">
+        <v>317</v>
       </c>
       <c r="G26" s="3"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="18" t="str">
+      <c r="A27" s="19" t="str">
         <f aca="false">UseCases!A27</f>
         <v>Send Email</v>
       </c>
-      <c r="B27" s="18" t="str">
+      <c r="B27" s="19" t="str">
         <f aca="false">UseCases!B27</f>
         <v>User Registration</v>
       </c>
-      <c r="C27" s="18" t="str">
+      <c r="C27" s="19" t="str">
         <f aca="false">UseCases!C27</f>
         <v>BG2</v>
       </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
       <c r="G27" s="3"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="18" t="str">
+      <c r="A28" s="19" t="str">
         <f aca="false">UseCases!A28</f>
         <v>Send Email</v>
       </c>
-      <c r="B28" s="18" t="str">
+      <c r="B28" s="19" t="str">
         <f aca="false">UseCases!B28</f>
         <v>Password Changed</v>
       </c>
-      <c r="C28" s="18" t="str">
+      <c r="C28" s="19" t="str">
         <f aca="false">UseCases!C28</f>
         <v>BG2</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
       <c r="G28" s="3"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="18" t="str">
+      <c r="A29" s="19" t="str">
         <f aca="false">UseCases!A29</f>
         <v>Send Email</v>
       </c>
-      <c r="B29" s="18" t="str">
+      <c r="B29" s="19" t="str">
         <f aca="false">UseCases!B29</f>
         <v>Password Reset</v>
       </c>
-      <c r="C29" s="18" t="str">
+      <c r="C29" s="19" t="str">
         <f aca="false">UseCases!C29</f>
         <v>BG2</v>
       </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
       <c r="G29" s="3"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="18" t="str">
+      <c r="A30" s="19" t="str">
         <f aca="false">UseCases!A30</f>
         <v>Internationalization</v>
       </c>
-      <c r="B30" s="18" t="str">
+      <c r="B30" s="19" t="str">
         <f aca="false">UseCases!B30</f>
         <v>Switch Language</v>
       </c>
-      <c r="C30" s="23" t="str">
+      <c r="C30" s="24" t="str">
         <f aca="false">UseCases!C30</f>
         <v>P1</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="E30" s="14"/>
+      <c r="F30" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="25" t="s">
-        <v>323</v>
-      </c>
       <c r="G30" s="3"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="18" t="str">
+      <c r="A31" s="19" t="str">
         <f aca="false">UseCases!A31</f>
         <v>Internationalization</v>
       </c>
-      <c r="B31" s="18" t="str">
+      <c r="B31" s="19" t="str">
         <f aca="false">UseCases!B31</f>
         <v>Support Multiple Languages</v>
       </c>
-      <c r="C31" s="23" t="str">
+      <c r="C31" s="24" t="str">
         <f aca="false">UseCases!C31</f>
         <v>P1</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="F31" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="E31" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="F31" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="18" t="n">
+      <c r="A32" s="19" t="n">
         <f aca="false">UseCases!A32</f>
         <v>0</v>
       </c>
-      <c r="B32" s="18" t="n">
+      <c r="B32" s="19" t="n">
         <f aca="false">UseCases!B32</f>
         <v>0</v>
       </c>
-      <c r="C32" s="18" t="n">
+      <c r="C32" s="19" t="n">
         <f aca="false">UseCases!C32</f>
         <v>0</v>
       </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
       <c r="G32" s="3"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="18" t="n">
+      <c r="A33" s="19" t="n">
         <f aca="false">UseCases!A33</f>
         <v>0</v>
       </c>
-      <c r="B33" s="18" t="n">
+      <c r="B33" s="19" t="n">
         <f aca="false">UseCases!B33</f>
         <v>0</v>
       </c>
-      <c r="C33" s="18" t="n">
+      <c r="C33" s="19" t="n">
         <f aca="false">UseCases!C33</f>
         <v>0</v>
       </c>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
       <c r="G33" s="3"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="18" t="n">
+      <c r="A34" s="19" t="n">
         <f aca="false">UseCases!A34</f>
         <v>0</v>
       </c>
-      <c r="B34" s="18" t="n">
+      <c r="B34" s="19" t="n">
         <f aca="false">UseCases!B34</f>
         <v>0</v>
       </c>
-      <c r="C34" s="18" t="n">
+      <c r="C34" s="19" t="n">
         <f aca="false">UseCases!C34</f>
         <v>0</v>
       </c>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
       <c r="G34" s="3"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="18" t="n">
+      <c r="A35" s="19" t="n">
         <f aca="false">UseCases!A35</f>
         <v>0</v>
       </c>
-      <c r="B35" s="18" t="n">
+      <c r="B35" s="19" t="n">
         <f aca="false">UseCases!B35</f>
         <v>0</v>
       </c>
-      <c r="C35" s="18" t="n">
+      <c r="C35" s="19" t="n">
         <f aca="false">UseCases!C35</f>
         <v>0</v>
       </c>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
       <c r="G35" s="3"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="18" t="n">
+      <c r="A36" s="19" t="n">
         <f aca="false">UseCases!A36</f>
         <v>0</v>
       </c>
-      <c r="B36" s="18" t="n">
+      <c r="B36" s="19" t="n">
         <f aca="false">UseCases!B36</f>
         <v>0</v>
       </c>
-      <c r="C36" s="18" t="n">
+      <c r="C36" s="19" t="n">
         <f aca="false">UseCases!C36</f>
         <v>0</v>
       </c>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
       <c r="G36" s="3"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="18" t="n">
+      <c r="A37" s="19" t="n">
         <f aca="false">UseCases!A37</f>
         <v>0</v>
       </c>
-      <c r="B37" s="18" t="n">
+      <c r="B37" s="19" t="n">
         <f aca="false">UseCases!B37</f>
         <v>0</v>
       </c>
-      <c r="C37" s="18" t="n">
+      <c r="C37" s="19" t="n">
         <f aca="false">UseCases!C37</f>
         <v>0</v>
       </c>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
       <c r="G37" s="3"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="18" t="n">
+      <c r="A38" s="19" t="n">
         <f aca="false">UseCases!A38</f>
         <v>0</v>
       </c>
-      <c r="B38" s="18" t="n">
+      <c r="B38" s="19" t="n">
         <f aca="false">UseCases!B38</f>
         <v>0</v>
       </c>
-      <c r="C38" s="18" t="n">
+      <c r="C38" s="19" t="n">
         <f aca="false">UseCases!C38</f>
         <v>0</v>
       </c>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
       <c r="G38" s="3"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="18" t="n">
+      <c r="A39" s="19" t="n">
         <f aca="false">UseCases!A39</f>
         <v>0</v>
       </c>
-      <c r="B39" s="18" t="n">
+      <c r="B39" s="19" t="n">
         <f aca="false">UseCases!B39</f>
         <v>0</v>
       </c>
-      <c r="C39" s="18" t="n">
+      <c r="C39" s="19" t="n">
         <f aca="false">UseCases!C39</f>
         <v>0</v>
       </c>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
       <c r="G39" s="3"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="18" t="n">
+      <c r="A40" s="19" t="n">
         <f aca="false">UseCases!A40</f>
         <v>0</v>
       </c>
-      <c r="B40" s="18" t="n">
+      <c r="B40" s="19" t="n">
         <f aca="false">UseCases!B40</f>
         <v>0</v>
       </c>
-      <c r="C40" s="18" t="n">
+      <c r="C40" s="19" t="n">
         <f aca="false">UseCases!C40</f>
         <v>0</v>
       </c>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
       <c r="G40" s="3"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="18" t="n">
+      <c r="A41" s="19" t="n">
         <f aca="false">UseCases!A41</f>
         <v>0</v>
       </c>
-      <c r="B41" s="18" t="n">
+      <c r="B41" s="19" t="n">
         <f aca="false">UseCases!B41</f>
         <v>0</v>
       </c>
-      <c r="C41" s="18" t="n">
+      <c r="C41" s="19" t="n">
         <f aca="false">UseCases!C41</f>
         <v>0</v>
       </c>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
       <c r="G41" s="3"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="18" t="n">
+      <c r="A42" s="19" t="n">
         <f aca="false">UseCases!A42</f>
         <v>0</v>
       </c>
-      <c r="B42" s="18" t="n">
+      <c r="B42" s="19" t="n">
         <f aca="false">UseCases!B42</f>
         <v>0</v>
       </c>
-      <c r="C42" s="18" t="n">
+      <c r="C42" s="19" t="n">
         <f aca="false">UseCases!C42</f>
         <v>0</v>
       </c>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
       <c r="G42" s="3"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="18" t="n">
+      <c r="A43" s="19" t="n">
         <f aca="false">UseCases!A43</f>
         <v>0</v>
       </c>
-      <c r="B43" s="18" t="n">
+      <c r="B43" s="19" t="n">
         <f aca="false">UseCases!B43</f>
         <v>0</v>
       </c>
-      <c r="C43" s="18" t="n">
+      <c r="C43" s="19" t="n">
         <f aca="false">UseCases!C43</f>
         <v>0</v>
       </c>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
       <c r="G43" s="3"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
-      <c r="G44" s="28"/>
+      <c r="G44" s="29"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
-      <c r="G45" s="28"/>
+      <c r="G45" s="29"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
-      <c r="G46" s="28"/>
+      <c r="G46" s="29"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
-      <c r="G47" s="28"/>
+      <c r="G47" s="29"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
-      <c r="G48" s="28"/>
+      <c r="G48" s="29"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
-      <c r="G49" s="28"/>
+      <c r="G49" s="29"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
-      <c r="G50" s="28"/>
+      <c r="G50" s="29"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
-      <c r="G51" s="28"/>
+      <c r="G51" s="29"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
-      <c r="G52" s="28"/>
+      <c r="G52" s="29"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
-      <c r="G53" s="28"/>
+      <c r="G53" s="29"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
-      <c r="G54" s="28"/>
+      <c r="G54" s="29"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
-      <c r="G55" s="28"/>
+      <c r="G55" s="29"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
-      <c r="G56" s="28"/>
+      <c r="G56" s="29"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
-      <c r="G57" s="28"/>
+      <c r="G57" s="29"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
-      <c r="G58" s="28"/>
+      <c r="G58" s="29"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
-      <c r="G59" s="28"/>
+      <c r="G59" s="29"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
-      <c r="G60" s="28"/>
+      <c r="G60" s="29"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
-      <c r="G61" s="28"/>
+      <c r="G61" s="29"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
-      <c r="G62" s="28"/>
+      <c r="G62" s="29"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
-      <c r="G63" s="28"/>
+      <c r="G63" s="29"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
-      <c r="G64" s="28"/>
+      <c r="G64" s="29"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
-      <c r="G65" s="28"/>
+      <c r="G65" s="29"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
-      <c r="G66" s="28"/>
+      <c r="G66" s="29"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
-      <c r="G67" s="28"/>
+      <c r="G67" s="29"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
-      <c r="G68" s="28"/>
+      <c r="G68" s="29"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
-      <c r="G69" s="28"/>
+      <c r="G69" s="29"/>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
-      <c r="G70" s="28"/>
+      <c r="G70" s="29"/>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
-      <c r="G71" s="28"/>
+      <c r="G71" s="29"/>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
-      <c r="G72" s="28"/>
+      <c r="G72" s="29"/>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
-      <c r="G73" s="28"/>
+      <c r="G73" s="29"/>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
-      <c r="G74" s="28"/>
+      <c r="G74" s="29"/>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
-      <c r="G75" s="28"/>
+      <c r="G75" s="29"/>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
-      <c r="G76" s="28"/>
+      <c r="G76" s="29"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
-      <c r="G77" s="28"/>
+      <c r="G77" s="29"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
-      <c r="G78" s="28"/>
+      <c r="G78" s="29"/>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
-      <c r="G79" s="28"/>
+      <c r="G79" s="29"/>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
-      <c r="G80" s="28"/>
+      <c r="G80" s="29"/>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
-      <c r="G81" s="28"/>
+      <c r="G81" s="29"/>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
-      <c r="G82" s="28"/>
+      <c r="G82" s="29"/>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
-      <c r="G83" s="28"/>
+      <c r="G83" s="29"/>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
-      <c r="G84" s="28"/>
+      <c r="G84" s="29"/>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
-      <c r="G85" s="28"/>
+      <c r="G85" s="29"/>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
-      <c r="G86" s="28"/>
+      <c r="G86" s="29"/>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
-      <c r="G87" s="28"/>
+      <c r="G87" s="29"/>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
-      <c r="G88" s="28"/>
+      <c r="G88" s="29"/>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
-      <c r="G89" s="28"/>
+      <c r="G89" s="29"/>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
-      <c r="G90" s="28"/>
+      <c r="G90" s="29"/>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
-      <c r="G91" s="28"/>
+      <c r="G91" s="29"/>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
-      <c r="G92" s="28"/>
+      <c r="G92" s="29"/>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
-      <c r="G93" s="28"/>
+      <c r="G93" s="29"/>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
-      <c r="G94" s="28"/>
+      <c r="G94" s="29"/>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
-      <c r="G95" s="28"/>
+      <c r="G95" s="29"/>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
-      <c r="G96" s="28"/>
+      <c r="G96" s="29"/>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
-      <c r="G97" s="28"/>
+      <c r="G97" s="29"/>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
-      <c r="G98" s="28"/>
+      <c r="G98" s="29"/>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
-      <c r="G99" s="28"/>
+      <c r="G99" s="29"/>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
-      <c r="G100" s="28"/>
+      <c r="G100" s="29"/>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B101" s="9"/>
@@ -15741,7 +15750,7 @@
       <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.26"/>
@@ -15757,28 +15766,28 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>332</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>333</v>
       </c>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
@@ -15801,24 +15810,24 @@
       <c r="AA1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
+        <v>333</v>
+      </c>
+      <c r="B2" s="30" t="s">
         <v>334</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="C2" s="30" t="s">
         <v>335</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="D2" s="30"/>
+      <c r="E2" s="30" t="s">
         <v>336</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29" t="s">
-        <v>337</v>
-      </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30" t="s">
+        <v>336</v>
+      </c>
+      <c r="H2" s="31"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
@@ -15840,19 +15849,19 @@
       <c r="AA2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13"/>
-      <c r="B3" s="31" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="32" t="s">
+        <v>337</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33" t="s">
         <v>339</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32" t="s">
-        <v>340</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
@@ -15875,17 +15884,17 @@
       <c r="AA3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13"/>
-      <c r="B4" s="31" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="32" t="s">
+        <v>340</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="32"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="33"/>
       <c r="H4" s="2"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -15908,17 +15917,17 @@
       <c r="AA4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13"/>
-      <c r="B5" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="32"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="32" t="s">
+        <v>342</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="33"/>
       <c r="H5" s="2"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
@@ -15941,17 +15950,17 @@
       <c r="AA5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13"/>
-      <c r="B6" s="31" t="s">
-        <v>344</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="32"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="33"/>
       <c r="H6" s="2"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -15974,19 +15983,19 @@
       <c r="AA6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13"/>
-      <c r="B7" s="31" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="32" t="s">
+        <v>344</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="2" t="s">
         <v>346</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="2" t="s">
-        <v>347</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -16009,19 +16018,19 @@
       <c r="AA7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13"/>
-      <c r="B8" s="18" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="D8" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="2"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -16044,17 +16053,17 @@
       <c r="AA8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18" t="s">
-        <v>350</v>
-      </c>
-      <c r="C9" s="13" t="s">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19" t="s">
         <v>349</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="C9" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="2"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -16077,21 +16086,21 @@
       <c r="AA9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13"/>
-      <c r="B10" s="18" t="s">
+      <c r="A10" s="14"/>
+      <c r="B10" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="2" t="s">
         <v>351</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="2" t="s">
-        <v>352</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -16114,17 +16123,17 @@
       <c r="AA10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13"/>
-      <c r="B11" s="18" t="s">
-        <v>353</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
       <c r="H11" s="2"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -16147,17 +16156,17 @@
       <c r="AA11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
       <c r="H12" s="2"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -16180,17 +16189,17 @@
       <c r="AA12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13"/>
-      <c r="B13" s="18" t="s">
-        <v>355</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="19" t="s">
+        <v>354</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
       <c r="H13" s="2"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -16213,17 +16222,17 @@
       <c r="AA13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13"/>
-      <c r="B14" s="18" t="s">
-        <v>356</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
       <c r="H14" s="2"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -16246,17 +16255,17 @@
       <c r="AA14" s="9"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13"/>
-      <c r="B15" s="18" t="s">
-        <v>357</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
       <c r="H15" s="2"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -16279,17 +16288,17 @@
       <c r="AA15" s="9"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13"/>
-      <c r="B16" s="18" t="s">
+      <c r="A16" s="14"/>
+      <c r="B16" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>358</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>359</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
       <c r="H16" s="2"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -16312,19 +16321,19 @@
       <c r="AA16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13"/>
-      <c r="B17" s="18" t="s">
+      <c r="A17" s="14"/>
+      <c r="B17" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="2" t="s">
         <v>360</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="2" t="s">
-        <v>361</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -16347,19 +16356,19 @@
       <c r="AA17" s="9"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13"/>
-      <c r="B18" s="18" t="s">
+      <c r="A18" s="14"/>
+      <c r="B18" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="2" t="s">
         <v>362</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="2" t="s">
-        <v>363</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -16382,24 +16391,24 @@
       <c r="AA18" s="9"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="29" t="s">
-        <v>364</v>
-      </c>
-      <c r="B19" s="29" t="s">
+      <c r="A19" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>334</v>
+      </c>
+      <c r="C19" s="30" t="s">
         <v>335</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="D19" s="30"/>
+      <c r="E19" s="30" t="s">
         <v>336</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29" t="s">
-        <v>337</v>
-      </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29" t="s">
-        <v>337</v>
-      </c>
-      <c r="H19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30" t="s">
+        <v>336</v>
+      </c>
+      <c r="H19" s="31"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
@@ -16421,21 +16430,21 @@
       <c r="AA19" s="9"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="18"/>
-      <c r="B20" s="13" t="s">
-        <v>365</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="G20" s="13"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="G20" s="14"/>
       <c r="H20" s="2"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -16458,17 +16467,17 @@
       <c r="AA20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13" t="s">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>358</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>359</v>
-      </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="18"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="19"/>
       <c r="H21" s="2"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -16491,24 +16500,24 @@
       <c r="AA21" s="9"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="29" t="s">
-        <v>366</v>
-      </c>
-      <c r="B22" s="29" t="s">
+      <c r="A22" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>334</v>
+      </c>
+      <c r="C22" s="30" t="s">
         <v>335</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="D22" s="30"/>
+      <c r="E22" s="30" t="s">
         <v>336</v>
       </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29" t="s">
-        <v>337</v>
-      </c>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29" t="s">
-        <v>337</v>
-      </c>
-      <c r="H22" s="29"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30" t="s">
+        <v>336</v>
+      </c>
+      <c r="H22" s="30"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
@@ -16530,22 +16539,22 @@
       <c r="AA22" s="9"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13" t="s">
-        <v>367</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
@@ -16567,24 +16576,24 @@
       <c r="AA23" s="9"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="29" t="s">
-        <v>368</v>
-      </c>
-      <c r="B24" s="29" t="s">
+      <c r="A24" s="30" t="s">
+        <v>367</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>334</v>
+      </c>
+      <c r="C24" s="30" t="s">
         <v>335</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="D24" s="30"/>
+      <c r="E24" s="30" t="s">
         <v>336</v>
       </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29" t="s">
-        <v>337</v>
-      </c>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29" t="s">
-        <v>337</v>
-      </c>
-      <c r="H24" s="29"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30" t="s">
+        <v>336</v>
+      </c>
+      <c r="H24" s="30"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
@@ -16606,16 +16615,16 @@
       <c r="AA24" s="9"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13" t="s">
-        <v>369</v>
-      </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
@@ -16637,16 +16646,16 @@
       <c r="AA25" s="9"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
@@ -16668,24 +16677,24 @@
       <c r="AA26" s="9"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="29" t="s">
-        <v>371</v>
-      </c>
-      <c r="B27" s="29" t="s">
+      <c r="A27" s="30" t="s">
+        <v>370</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>334</v>
+      </c>
+      <c r="C27" s="30" t="s">
         <v>335</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="D27" s="30"/>
+      <c r="E27" s="30" t="s">
         <v>336</v>
       </c>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29" t="s">
-        <v>337</v>
-      </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29" t="s">
-        <v>337</v>
-      </c>
-      <c r="H27" s="29"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30" t="s">
+        <v>336</v>
+      </c>
+      <c r="H27" s="30"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
@@ -16707,16 +16716,16 @@
       <c r="AA27" s="9"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13" t="s">
-        <v>372</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
@@ -16738,16 +16747,16 @@
       <c r="AA28" s="9"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
@@ -16769,24 +16778,24 @@
       <c r="AA29" s="9"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="29" t="s">
-        <v>373</v>
-      </c>
-      <c r="B30" s="29" t="s">
+      <c r="A30" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>334</v>
+      </c>
+      <c r="C30" s="30" t="s">
         <v>335</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="D30" s="30"/>
+      <c r="E30" s="30" t="s">
         <v>336</v>
       </c>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29" t="s">
-        <v>337</v>
-      </c>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29" t="s">
-        <v>337</v>
-      </c>
-      <c r="H30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30" t="s">
+        <v>336</v>
+      </c>
+      <c r="H30" s="31"/>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
@@ -16808,19 +16817,19 @@
       <c r="AA30" s="9"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="18"/>
-      <c r="B31" s="33" t="s">
+      <c r="A31" s="19"/>
+      <c r="B31" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="34" t="s">
         <v>374</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="33" t="s">
-        <v>375</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -16843,18 +16852,18 @@
       <c r="AA31" s="9"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="18"/>
-      <c r="B32" s="33" t="s">
+      <c r="A32" s="19"/>
+      <c r="B32" s="34" t="s">
+        <v>375</v>
+      </c>
+      <c r="C32" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="34"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="35"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
@@ -16876,19 +16885,19 @@
       <c r="AA32" s="9"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="18"/>
-      <c r="B33" s="33" t="s">
+      <c r="A33" s="19"/>
+      <c r="B33" s="34" t="s">
+        <v>377</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="2" t="s">
         <v>378</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="2" t="s">
-        <v>379</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -16911,21 +16920,21 @@
       <c r="AA33" s="9"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="18"/>
-      <c r="B34" s="13" t="s">
-        <v>365</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="G34" s="13"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="G34" s="14"/>
       <c r="H34" s="2"/>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -16948,17 +16957,17 @@
       <c r="AA34" s="9"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13" t="s">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="C35" s="14" t="s">
         <v>358</v>
       </c>
-      <c r="C35" s="13" t="s">
-        <v>359</v>
-      </c>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="18"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="19"/>
       <c r="H35" s="2"/>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -17069,7 +17078,7 @@
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -17129,7 +17138,7 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -22980,13 +22989,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:C21"/>
+  <dimension ref="A2:C220"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.25"/>
@@ -22996,104 +23005,104 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="36" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="36" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="35" t="s">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="36" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="35" t="s">
+      <c r="C4" s="36" t="s">
         <v>384</v>
       </c>
-      <c r="C4" s="35" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="36" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="35" t="s">
+      <c r="C5" s="36" t="s">
         <v>386</v>
       </c>
-      <c r="C5" s="35" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="36" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="35" t="s">
+      <c r="C6" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="C6" s="35" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="36" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="35" t="s">
+      <c r="C7" s="36" t="s">
         <v>390</v>
       </c>
-      <c r="C7" s="35" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C10" s="36" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C10" s="35" t="s">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="36" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="35" t="s">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="36" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="35" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" s="35" t="s">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="36" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" s="37" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="35" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" s="36" t="s">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="36" t="n">
+        <v>4</v>
+      </c>
+      <c r="C14" s="36" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="35" t="n">
-        <v>4</v>
-      </c>
-      <c r="C14" s="35" t="s">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="36" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" s="36" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="35" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>397</v>
-      </c>
-    </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="35" t="n">
+      <c r="B16" s="36" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="35" t="n">
+      <c r="B17" s="36" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="35" t="n">
+      <c r="B18" s="36" t="n">
         <v>8</v>
       </c>
     </row>
@@ -23321,9 +23330,9 @@
       <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="54.25"/>
@@ -23332,16 +23341,16 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
+        <v>397</v>
+      </c>
+      <c r="B1" s="36" t="s">
         <v>398</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="C1" s="36" t="s">
         <v>399</v>
       </c>
-      <c r="C1" s="35" t="s">
-        <v>400</v>
-      </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="36" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="9"/>
@@ -23373,7 +23382,7 @@
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
-      <c r="F2" s="35"/>
+      <c r="F2" s="36"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
@@ -23396,14 +23405,14 @@
       <c r="Z2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="B3" s="36" t="s">
         <v>401</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="C3" s="36" t="s">
         <v>402</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>403</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -23430,14 +23439,14 @@
       <c r="Z3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="36" t="s">
+        <v>403</v>
+      </c>
+      <c r="B4" s="36" t="s">
         <v>404</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="C4" s="36" t="s">
         <v>405</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>406</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -23464,12 +23473,12 @@
       <c r="Z4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35" t="s">
+      <c r="A5" s="36"/>
+      <c r="B5" s="36" t="s">
+        <v>406</v>
+      </c>
+      <c r="C5" s="36" t="s">
         <v>407</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>408</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -23496,15 +23505,15 @@
       <c r="Z5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35" t="s">
+      <c r="A6" s="36"/>
+      <c r="B6" s="36" t="s">
+        <v>408</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>408</v>
+      </c>
+      <c r="D6" s="36" t="s">
         <v>409</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>409</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>410</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
@@ -23530,11 +23539,11 @@
       <c r="Z6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="38" t="s">
+        <v>410</v>
+      </c>
+      <c r="B7" s="36" t="s">
         <v>411</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>412</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -23562,24 +23571,24 @@
       <c r="Z7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="36" t="s">
+        <v>412</v>
+      </c>
+      <c r="B8" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="C8" s="36" t="s">
         <v>414</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="D8" s="29" t="s">
         <v>415</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="E8" s="36" t="s">
         <v>416</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="F8" s="9"/>
+      <c r="G8" s="29" t="s">
         <v>417</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="28" t="s">
-        <v>418</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
@@ -23602,14 +23611,14 @@
       <c r="Z8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="B9" s="36" t="s">
         <v>419</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="C9" s="36" t="s">
         <v>420</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>421</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
@@ -23636,15 +23645,15 @@
       <c r="Z9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="36" t="s">
+        <v>421</v>
+      </c>
+      <c r="B10" s="36" t="s">
         <v>422</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="C10" s="36"/>
+      <c r="D10" s="36" t="s">
         <v>423</v>
-      </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35" t="s">
-        <v>424</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
@@ -23670,14 +23679,14 @@
       <c r="Z10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="36" t="s">
+        <v>424</v>
+      </c>
+      <c r="B11" s="36" t="s">
         <v>425</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="C11" s="36" t="s">
         <v>426</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>427</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -23704,12 +23713,12 @@
       <c r="Z11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35" t="s">
+      <c r="A12" s="36"/>
+      <c r="B12" s="36" t="s">
+        <v>427</v>
+      </c>
+      <c r="C12" s="36" t="s">
         <v>428</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>429</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -23736,14 +23745,14 @@
       <c r="Z12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="36" t="s">
+        <v>429</v>
+      </c>
+      <c r="B13" s="36" t="s">
         <v>430</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="C13" s="36" t="s">
         <v>431</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>432</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -23771,11 +23780,11 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="9"/>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="36" t="s">
+        <v>432</v>
+      </c>
+      <c r="C14" s="36" t="s">
         <v>433</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>434</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -23802,14 +23811,14 @@
       <c r="Z14" s="9"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="36" t="s">
+        <v>434</v>
+      </c>
+      <c r="B15" s="36" t="s">
         <v>435</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="C15" s="36" t="s">
         <v>436</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>437</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -23836,16 +23845,16 @@
       <c r="Z15" s="9"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35" t="s">
+      <c r="A16" s="36"/>
+      <c r="B16" s="36" t="s">
+        <v>437</v>
+      </c>
+      <c r="C16" s="36" t="s">
         <v>438</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="D16" s="36"/>
+      <c r="E16" s="36" t="s">
         <v>439</v>
-      </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35" t="s">
-        <v>440</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -23870,14 +23879,14 @@
       <c r="Z16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="36" t="s">
+        <v>440</v>
+      </c>
+      <c r="B17" s="36" t="s">
         <v>441</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="C17" s="36" t="s">
         <v>442</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>443</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
@@ -23904,14 +23913,14 @@
       <c r="Z17" s="9"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="36" t="s">
+        <v>443</v>
+      </c>
+      <c r="B18" s="36" t="s">
         <v>444</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="C18" s="36" t="s">
         <v>445</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>446</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
@@ -23939,8 +23948,8 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="9"/>
-      <c r="B19" s="35" t="s">
-        <v>447</v>
+      <c r="B19" s="36" t="s">
+        <v>446</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -23968,11 +23977,11 @@
       <c r="Z19" s="9"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="36" t="s">
+        <v>447</v>
+      </c>
+      <c r="B20" s="36" t="s">
         <v>448</v>
-      </c>
-      <c r="B20" s="35" t="s">
-        <v>449</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -24000,13 +24009,13 @@
       <c r="Z20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="36" t="s">
+        <v>449</v>
+      </c>
+      <c r="B21" s="36" t="s">
         <v>450</v>
       </c>
-      <c r="B21" s="35" t="s">
-        <v>451</v>
-      </c>
-      <c r="C21" s="35"/>
+      <c r="C21" s="36"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
@@ -24033,16 +24042,16 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>452</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="C22" s="36" t="s">
         <v>453</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="D22" s="9" t="s">
         <v>454</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>455</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
@@ -24070,7 +24079,7 @@
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="9"/>
       <c r="B23" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
@@ -24098,10 +24107,10 @@
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>457</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>458</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -24130,13 +24139,13 @@
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>459</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="C25" s="9" t="s">
         <v>460</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>461</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
@@ -24164,10 +24173,10 @@
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>462</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>463</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -24196,10 +24205,10 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>464</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>465</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -24227,8 +24236,8 @@
       <c r="Z27" s="9"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="35" t="s">
-        <v>466</v>
+      <c r="B28" s="36" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -24344,8 +24353,8 @@
       <c r="Z32" s="9"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="38" t="s">
-        <v>467</v>
+      <c r="A33" s="39" t="s">
+        <v>466</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -24375,13 +24384,13 @@
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>468</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="C34" s="9" t="s">
         <v>469</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>470</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
@@ -24409,13 +24418,13 @@
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>471</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>469</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>472</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
@@ -24443,10 +24452,10 @@
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -24475,14 +24484,14 @@
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="22" t="s">
         <v>474</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="21" t="s">
-        <v>475</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
@@ -24509,16 +24518,16 @@
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C38" s="22" t="s">
         <v>476</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="C38" s="21" t="s">
+      <c r="D38" s="22" t="s">
         <v>477</v>
-      </c>
-      <c r="D38" s="21" t="s">
-        <v>478</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
@@ -24545,14 +24554,14 @@
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="22" t="s">
         <v>479</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="21" t="s">
-        <v>480</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
@@ -24579,10 +24588,10 @@
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="B40" s="9" t="s">
         <v>481</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>482</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
@@ -24611,10 +24620,10 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="B41" s="9" t="s">
         <v>483</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>484</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -24643,10 +24652,10 @@
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -24675,10 +24684,10 @@
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
@@ -24707,10 +24716,10 @@
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
@@ -24739,10 +24748,10 @@
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
@@ -24771,10 +24780,10 @@
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="B46" s="9" t="s">
         <v>489</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>490</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
@@ -24803,10 +24812,10 @@
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -24835,10 +24844,10 @@
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -24867,10 +24876,10 @@
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -24899,7 +24908,7 @@
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -24929,16 +24938,16 @@
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="B51" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="C51" s="9" t="s">
         <v>495</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="D51" s="40" t="s">
         <v>496</v>
-      </c>
-      <c r="D51" s="39" t="s">
-        <v>497</v>
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
@@ -24965,14 +24974,14 @@
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="B52" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="C52" s="9"/>
+      <c r="D52" s="22" t="s">
         <v>499</v>
-      </c>
-      <c r="C52" s="9"/>
-      <c r="D52" s="21" t="s">
-        <v>500</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
@@ -24999,10 +25008,10 @@
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="B53" s="9" t="s">
         <v>501</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>502</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
@@ -25031,10 +25040,10 @@
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="B54" s="9" t="s">
         <v>503</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>504</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
@@ -25063,12 +25072,12 @@
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
-      <c r="D55" s="39" t="s">
-        <v>506</v>
+      <c r="D55" s="40" t="s">
+        <v>505</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
@@ -30721,7 +30730,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.25"/>
@@ -30731,18 +30740,18 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
+        <v>506</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>507</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="C1" s="37" t="s">
         <v>508</v>
       </c>
-      <c r="C1" s="36" t="s">
-        <v>509</v>
-      </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
@@ -30765,8 +30774,8 @@
       <c r="Z1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="35" t="s">
-        <v>510</v>
+      <c r="A2" s="36" t="s">
+        <v>509</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -30795,21 +30804,21 @@
       <c r="Z2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="B3" s="35" t="s">
+      <c r="A3" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>510</v>
+      </c>
+      <c r="C3" s="36" t="s">
         <v>511</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="D3" s="36" t="s">
         <v>512</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="37" t="s">
         <v>513</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="36" t="s">
-        <v>514</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -30833,15 +30842,15 @@
       <c r="Z3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35" t="s">
-        <v>515</v>
+      <c r="A4" s="36"/>
+      <c r="B4" s="36" t="s">
+        <v>514</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="35" t="s">
-        <v>516</v>
+      <c r="F4" s="36" t="s">
+        <v>515</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
@@ -30865,15 +30874,15 @@
       <c r="Z4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35" t="s">
-        <v>517</v>
+      <c r="A5" s="36"/>
+      <c r="B5" s="36" t="s">
+        <v>516</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="35" t="s">
-        <v>518</v>
+      <c r="F5" s="36" t="s">
+        <v>517</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
@@ -30897,15 +30906,15 @@
       <c r="Z5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35" t="s">
-        <v>519</v>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36" t="s">
+        <v>518</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="35" t="s">
-        <v>520</v>
+      <c r="F6" s="36" t="s">
+        <v>519</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
@@ -30929,13 +30938,13 @@
       <c r="Z6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="35"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="35" t="s">
-        <v>521</v>
+      <c r="F7" s="36" t="s">
+        <v>520</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -30959,13 +30968,13 @@
       <c r="Z7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="35"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
-      <c r="F8" s="35" t="s">
-        <v>522</v>
+      <c r="F8" s="36" t="s">
+        <v>521</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -30989,8 +30998,8 @@
       <c r="Z8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="35" t="s">
-        <v>523</v>
+      <c r="A9" s="36" t="s">
+        <v>522</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -31019,11 +31028,11 @@
       <c r="Z9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="36" t="s">
+        <v>523</v>
+      </c>
+      <c r="B10" s="36" t="s">
         <v>524</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>525</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -31051,8 +31060,8 @@
       <c r="Z10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="35" t="s">
-        <v>526</v>
+      <c r="A11" s="36" t="s">
+        <v>525</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -31081,8 +31090,8 @@
       <c r="Z11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="35" t="s">
-        <v>527</v>
+      <c r="A12" s="36" t="s">
+        <v>526</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -31111,10 +31120,10 @@
       <c r="Z12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="35" t="s">
-        <v>528</v>
-      </c>
-      <c r="B13" s="40" t="str">
+      <c r="A13" s="36" t="s">
+        <v>527</v>
+      </c>
+      <c r="B13" s="41" t="str">
         <f aca="false">HYPERLINK("http://www.quizover.com/flashcards/what-does-cohesion-mean","http://www.quizover.com/flashcards/what-does-cohesion-mean")</f>
         <v>http://www.quizover.com/flashcards/what-does-cohesion-mean</v>
       </c>
@@ -31144,8 +31153,8 @@
       <c r="Z13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="35" t="s">
-        <v>529</v>
+      <c r="A14" s="36" t="s">
+        <v>528</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -31174,11 +31183,11 @@
       <c r="Z14" s="9"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="36" t="s">
+        <v>529</v>
+      </c>
+      <c r="B15" s="36" t="s">
         <v>530</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>531</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -31206,8 +31215,8 @@
       <c r="Z15" s="9"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="35" t="s">
-        <v>532</v>
+      <c r="A16" s="36" t="s">
+        <v>531</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -31237,8 +31246,8 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="9"/>
-      <c r="B17" s="35" t="s">
-        <v>533</v>
+      <c r="B17" s="36" t="s">
+        <v>532</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -31267,8 +31276,8 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="9"/>
-      <c r="B18" s="35" t="s">
-        <v>534</v>
+      <c r="B18" s="36" t="s">
+        <v>533</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -31297,8 +31306,8 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="9"/>
-      <c r="B19" s="35" t="s">
-        <v>535</v>
+      <c r="B19" s="36" t="s">
+        <v>534</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -31327,8 +31336,8 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="9"/>
-      <c r="B20" s="35" t="s">
-        <v>536</v>
+      <c r="B20" s="36" t="s">
+        <v>535</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -31357,8 +31366,8 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="9"/>
-      <c r="B21" s="35" t="s">
-        <v>537</v>
+      <c r="B21" s="36" t="s">
+        <v>536</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -31387,8 +31396,8 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="9"/>
-      <c r="B22" s="35" t="s">
-        <v>538</v>
+      <c r="B22" s="36" t="s">
+        <v>537</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -31417,7 +31426,7 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="9"/>
-      <c r="B23" s="35"/>
+      <c r="B23" s="36"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
@@ -31444,11 +31453,11 @@
       <c r="Z23" s="9"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="36" t="s">
+        <v>538</v>
+      </c>
+      <c r="B24" s="36" t="s">
         <v>539</v>
-      </c>
-      <c r="B24" s="35" t="s">
-        <v>540</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -37091,13 +37100,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C224"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.87"/>
@@ -37107,144 +37116,144 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
+        <v>540</v>
+      </c>
+      <c r="B1" s="36" t="s">
         <v>541</v>
       </c>
-      <c r="B1" s="35" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="36" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="35" t="s">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="36" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="35" t="s">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="36" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="35" t="s">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="36" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="35" t="s">
+      <c r="B5" s="36" t="s">
         <v>546</v>
       </c>
-      <c r="B5" s="35" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="36" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="35" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="36" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="35" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="36"/>
+      <c r="B8" s="36" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35" t="s">
+      <c r="C8" s="36" t="s">
         <v>550</v>
       </c>
-      <c r="C8" s="35" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="36"/>
+      <c r="B9" s="36" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35" t="s">
+      <c r="C9" s="36"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="36" t="s">
         <v>552</v>
       </c>
-      <c r="C9" s="35"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="35" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="36"/>
+      <c r="B11" s="36" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="35"/>
-      <c r="B11" s="35" t="s">
+      <c r="C11" s="36"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="36" t="s">
         <v>554</v>
       </c>
-      <c r="C11" s="35"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="35" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="36" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="35"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="35" t="s">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="36" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="35" t="s">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="36" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="35" t="s">
+      <c r="C16" s="36" t="s">
         <v>558</v>
       </c>
-      <c r="C16" s="35" t="s">
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="36" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="35" t="s">
+      <c r="B18" s="0" t="s">
+        <v>559</v>
+      </c>
+      <c r="C18" s="42" t="s">
         <v>560</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>560</v>
-      </c>
-      <c r="C18" s="41" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="36" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="35" t="s">
+      <c r="B19" s="0" t="s">
         <v>562</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -37472,15 +37481,15 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="1" style="0" width="14.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="13" style="0" width="17.25"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="35" t="s">
-        <v>567</v>
+      <c r="A1" s="36" t="s">
+        <v>566</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -37505,8 +37514,8 @@
       <c r="V1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="35" t="s">
-        <v>568</v>
+      <c r="A2" s="36" t="s">
+        <v>567</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -37531,8 +37540,8 @@
       <c r="V2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="35" t="s">
-        <v>569</v>
+      <c r="A3" s="36" t="s">
+        <v>568</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -37558,8 +37567,8 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9"/>
-      <c r="B4" s="35" t="s">
-        <v>570</v>
+      <c r="B4" s="36" t="s">
+        <v>569</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -37584,8 +37593,8 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="9"/>
-      <c r="B5" s="35" t="s">
-        <v>571</v>
+      <c r="B5" s="36" t="s">
+        <v>570</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -37609,8 +37618,8 @@
       <c r="V5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="35" t="s">
-        <v>572</v>
+      <c r="A6" s="36" t="s">
+        <v>571</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -37635,8 +37644,8 @@
       <c r="V6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="35" t="s">
-        <v>573</v>
+      <c r="A7" s="36" t="s">
+        <v>572</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -37661,7 +37670,7 @@
       <c r="V7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="35" t="n">
+      <c r="A8" s="36" t="n">
         <v>4</v>
       </c>
       <c r="B8" s="9"/>
